--- a/Modelagem/Fisico.xlsx
+++ b/Modelagem/Fisico.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Filial</t>
   </si>
@@ -43,83 +43,134 @@
     <t>idPacientes</t>
   </si>
   <si>
-    <t>idConsultas</t>
-  </si>
-  <si>
     <t>Situacao</t>
   </si>
   <si>
     <t>DataDaConsulta</t>
   </si>
   <si>
+    <t>Alameda Barão</t>
+  </si>
+  <si>
+    <t>SP Medic Group</t>
+  </si>
+  <si>
+    <t>Ainda nao realizado</t>
+  </si>
+  <si>
     <t>Medicos</t>
   </si>
   <si>
+    <t>idMedico</t>
+  </si>
+  <si>
+    <t>idEspecialidade</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>idUsuario</t>
+  </si>
+  <si>
+    <t>Especialidade</t>
+  </si>
+  <si>
+    <t>TituloEspecialida</t>
+  </si>
+  <si>
+    <t>Psicologo</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>idTipoUsuario</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>DataDeNascimento</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Doutor roberto</t>
+  </si>
+  <si>
+    <t>drroberto@ema</t>
+  </si>
+  <si>
+    <t>rua alameda</t>
+  </si>
+  <si>
+    <t>carlos</t>
+  </si>
+  <si>
+    <t>carlosrobs@em</t>
+  </si>
+  <si>
+    <t>rua recepcao</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalila </t>
+  </si>
+  <si>
+    <t>dalila@dasda</t>
+  </si>
+  <si>
+    <t>rua  amadai</t>
+  </si>
+  <si>
+    <t>singapura</t>
+  </si>
+  <si>
+    <t>TipoUsuario</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Medico</t>
+  </si>
+  <si>
+    <t>Recepcionista</t>
+  </si>
+  <si>
     <t>Recepcionistas</t>
   </si>
   <si>
     <t>Pacientes</t>
-  </si>
-  <si>
-    <t>idMedico</t>
-  </si>
-  <si>
-    <t>idEspecialidade</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>Especialidade</t>
-  </si>
-  <si>
-    <t>TituloEspecialida</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>idUsuario</t>
-  </si>
-  <si>
-    <t>idTipoUsuario</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>DataDeNascimento</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>RG</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>Senha</t>
-  </si>
-  <si>
-    <t>TipoUsuario</t>
-  </si>
-  <si>
-    <t>Titulo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -133,10 +184,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
     </font>
-    <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -159,6 +213,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
@@ -189,20 +249,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD5A6BD"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA8DC"/>
+        <bgColor rgb="FF6FA8DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFE06666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF6B26B"/>
         <bgColor rgb="FFF6B26B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8E7CC3"/>
-        <bgColor rgb="FF8E7CC3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5A6BD"/>
-        <bgColor rgb="FFD5A6BD"/>
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB4A7D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -213,80 +333,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4A7D6"/>
-        <bgColor rgb="FFB4A7D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6FA8DC"/>
-        <bgColor rgb="FF6FA8DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9FC5E8"/>
-        <bgColor rgb="FF9FC5E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE06666"/>
-        <bgColor rgb="FFE06666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor rgb="FFEA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -296,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -307,58 +361,128 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="20" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="21" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="22" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="23" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="24" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="25" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="18" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="21" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="22" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="23" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="23" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="24" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="25" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="24" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -582,200 +706,421 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1100110.0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="10">
+        <v>43962.0</v>
+      </c>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="M5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="F6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="E7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1213211.0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1.0</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="28">
+        <v>36693.0</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="27">
+        <v>1997747.0</v>
+      </c>
+      <c r="I17" s="27">
+        <v>3.4242424E7</v>
+      </c>
+      <c r="J17" s="27">
+        <v>3.42424342E8</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="27">
+        <v>123142.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="30">
+        <v>37356.0</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="29">
+        <v>1.19231312E8</v>
+      </c>
+      <c r="I18" s="29">
+        <v>1.32131415E8</v>
+      </c>
+      <c r="J18" s="29">
+        <v>1131421.0</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="30">
+        <v>36165.0</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="31">
+        <v>1.19274747E8</v>
+      </c>
+      <c r="I19" s="29">
+        <v>1.44115235E8</v>
+      </c>
+      <c r="J19" s="29">
+        <v>324342.0</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="G22" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="G23" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="19">
-      <c r="G19" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="G20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="12"/>
+      <c r="G24" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="36"/>
+      <c r="D25" s="12"/>
+      <c r="G25" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="36"/>
+      <c r="J26" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="39"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="36"/>
+      <c r="J27" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="B28" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="36"/>
+      <c r="J28" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="K28" s="45">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="12"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="C15:L15"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
